--- a/data/trans_bre/P15B_3_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P15B_3_R-Habitat-trans_bre.xlsx
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-65.98872459214475</v>
+        <v>-65.57139300895976</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-32.27688292993333</v>
+        <v>-33.00419398837279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-21.10365828805764</v>
+        <v>-20.07206374105066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-46.18447534615674</v>
+        <v>-44.44634321496373</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
@@ -679,7 +679,7 @@
         <v>-1</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.9459363984735125</v>
+        <v>-0.9486916970649892</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-24.17715686026992</v>
+        <v>-24.66304902642205</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-6.5209952147333</v>
+        <v>-7.475250550595086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.971468090328603</v>
+        <v>4.695731759510751</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.639430217568334</v>
+        <v>-9.112142152868156</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.09398429787573274</v>
+        <v>-0.0694190680683119</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.37482327983212</v>
+        <v>1.368954923765775</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.4386154560997451</v>
+        <v>-0.4476868385097042</v>
       </c>
     </row>
     <row r="7">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-45.54144333715062</v>
+        <v>-45.45264236402758</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-25.67728439604493</v>
+        <v>-26.8468950104031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-30.3538149703118</v>
+        <v>-31.72245969967358</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-28.87705792108221</v>
+        <v>-27.02720585168138</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9483433901824901</v>
+        <v>-0.9596941139079004</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.9352027445619991</v>
+        <v>-0.9134774561535562</v>
       </c>
     </row>
     <row r="9">
@@ -786,26 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-10.70191287692677</v>
+        <v>-8.094210874573688</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-6.679542889088691</v>
+        <v>-7.038321303019801</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-9.916883627136778</v>
+        <v>-10.01006720339874</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-3.752369235151337</v>
+        <v>-0.1338398194031863</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2202799985289376</v>
+        <v>-0.133427908823335</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3927694920251981</v>
+        <v>-0.3511323860911792</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>-0.04862105739841661</v>
+        <v>0.1577533954295843</v>
       </c>
     </row>
     <row r="10">
@@ -841,7 +841,7 @@
         <v>-0.02378352752924551</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.8416385289109475</v>
+        <v>-0.8416385289109473</v>
       </c>
     </row>
     <row r="11">
@@ -852,28 +852,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-45.39806161183331</v>
+        <v>-44.01187989393341</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-27.52580190853886</v>
+        <v>-27.40632612666717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.94931112615465</v>
+        <v>-16.62593141686848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-36.36099394716156</v>
+        <v>-36.58033224129544</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.7712009038521773</v>
+        <v>-0.7874764905821082</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.9005423529273594</v>
+        <v>-0.8933284674627473</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.778777695520093</v>
+        <v>-0.7450128442355457</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9728731303722266</v>
       </c>
     </row>
     <row r="12">
@@ -884,28 +884,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.995316304828637</v>
+        <v>10.18942450305541</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1321662907301558</v>
+        <v>1.795625527161559</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.32895100825272</v>
+        <v>19.24978083681436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.618950467273947</v>
+        <v>-3.923406649176151</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3896981881070021</v>
+        <v>0.4532286858359167</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1413520160271307</v>
+        <v>0.2864818471990108</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.497953363134594</v>
+        <v>3.212182504402554</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1304728713838414</v>
+        <v>-0.248268567218972</v>
       </c>
     </row>
     <row r="13">
@@ -929,7 +929,7 @@
         <v>-1.497259003686635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-6.159567991102975</v>
+        <v>-6.159567991102982</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.5945922057702999</v>
@@ -941,7 +941,7 @@
         <v>-0.1314492943111873</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.3713689953905172</v>
+        <v>-0.3713689953905175</v>
       </c>
     </row>
     <row r="14">
@@ -952,26 +952,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.01723928464728</v>
+        <v>-18.64575213461501</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-26.68615796451045</v>
+        <v>-26.03258323976745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.77921158704529</v>
+        <v>-12.13382021866169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-18.7499430112958</v>
+        <v>-19.19640906027481</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7227198371086212</v>
+        <v>-0.7446220453881195</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.747718164949991</v>
+        <v>-0.7680061988667389</v>
       </c>
     </row>
     <row r="15">
@@ -982,26 +982,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.460997055029772</v>
+        <v>7.367973846798201</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-6.761106126360591</v>
+        <v>-6.904359711705907</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.84508725814023</v>
+        <v>9.683092113527287</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.189337952988081</v>
+        <v>4.71684390889672</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>-0.2651833812388081</v>
+        <v>-0.3053032560294808</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.774038133032954</v>
+        <v>1.969009559100059</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6538913799198868</v>
+        <v>0.7143663187667931</v>
       </c>
     </row>
     <row r="16">
@@ -1048,28 +1048,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.04726828028486</v>
+        <v>-32.27924884512387</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-22.00324347664232</v>
+        <v>-21.76762502972014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.2421597157429</v>
+        <v>-13.97156245653256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-22.71143321573534</v>
+        <v>-22.52037148589103</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.8428747601493419</v>
+        <v>-0.8456162596619125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.8799530673168863</v>
+        <v>-0.8768164352845403</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.752890180372373</v>
+        <v>-0.7615222385160381</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8128047584277402</v>
+        <v>-0.8190801149492934</v>
       </c>
     </row>
     <row r="18">
@@ -1080,28 +1080,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-11.38037721112311</v>
+        <v>-11.84450732954484</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-10.38899760072177</v>
+        <v>-10.29354910615068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.801715964332646</v>
+        <v>-1.57208998688999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-8.496038627880194</v>
+        <v>-8.380889526361157</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3680138470103372</v>
+        <v>-0.3974701367880464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.53489758475895</v>
+        <v>-0.5472442932295586</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1077275065103238</v>
+        <v>-0.1239122949333067</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4584175354823263</v>
+        <v>-0.4562825893488202</v>
       </c>
     </row>
     <row r="19">
